--- a/BattleNoid_V2/Assets/@Resorces/Data/PerkData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PerkData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shh02\Vampire\BattleNoid_V2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5876C0-7BEE-496D-8A65-75DDFD107CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD191F-2BE6-4598-89D4-2C504ECA7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerkData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,76 +55,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>taskType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COMMON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111111P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생체 강화</t>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ADMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlyFor</t>
+  </si>
+  <si>
+    <t>ASPD</t>
+  </si>
+  <si>
+    <t>1.2*</t>
+  </si>
+  <si>
+    <t>111111C</t>
+  </si>
+  <si>
+    <t>111112C</t>
+  </si>
+  <si>
+    <t>111113C</t>
   </si>
   <si>
     <t>공격성 강화 프로토콜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111112P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASPD,ADMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2*,0.8*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2*,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isReplicatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>공격 보조 드론</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>AAML</t>
+  </si>
+  <si>
+    <t>111111P</t>
+  </si>
+  <si>
+    <t>1+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -432,25 +431,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -467,83 +466,103 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/BattleNoid_V2/Assets/@Resorces/Data/PerkData.xlsx
+++ b/BattleNoid_V2/Assets/@Resorces/Data/PerkData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2학년 팀플\0414\Vampire\BattleNoid_V2\Assets\@Resorces\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD191F-2BE6-4598-89D4-2C504ECA7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DEF67-3F05-4F30-8C66-916EC0AA8FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerkData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,9 +88,6 @@
     <t>111113C</t>
   </si>
   <si>
-    <t>공격성 강화 프로토콜</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -107,23 +104,202 @@
   </si>
   <si>
     <t>1+</t>
+  </si>
+  <si>
+    <t>공격성 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111114C</t>
+  </si>
+  <si>
+    <t>111115C</t>
+  </si>
+  <si>
+    <t>111116C</t>
+  </si>
+  <si>
+    <t>보호 체제 작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순 구조 수식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓은 시야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211111R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파츠 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광폭화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 차지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 무장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211112R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211113R</t>
+  </si>
+  <si>
+    <t>211114R</t>
+  </si>
+  <si>
+    <t>211115R</t>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>311112E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>311113E</t>
+  </si>
+  <si>
+    <t>311114E</t>
+  </si>
+  <si>
+    <t>311115E</t>
+  </si>
+  <si>
+    <t>유연한 사고회로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초전도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전무장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬멸모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망원렌즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>311111E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLSTAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMG/HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2* / 1.5*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMG/-HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5*/0.8*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5* / 1.2*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -431,25 +607,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -504,10 +680,10 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,13 +691,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -533,10 +709,10 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,25 +720,452 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
